--- a/ZZseleniumStarts/ex1/Book1.xlsx
+++ b/ZZseleniumStarts/ex1/Book1.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akshay\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16275" windowHeight="6060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Admin</t>
   </si>
@@ -28,6 +32,9 @@
     <t>admin123</t>
   </si>
   <si>
+    <t>text1</t>
+  </si>
+  <si>
     <t>text2</t>
   </si>
   <si>
@@ -79,16 +86,13 @@
     <t>book9</t>
   </si>
   <si>
+    <t>AKSHAY</t>
+  </si>
+  <si>
+    <t>i am here</t>
+  </si>
+  <si>
     <t>boss</t>
-  </si>
-  <si>
-    <t>boss1</t>
-  </si>
-  <si>
-    <t>AKSHAY</t>
-  </si>
-  <si>
-    <t>i am here</t>
   </si>
 </sst>
 </file>
@@ -407,17 +411,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -425,84 +429,87 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/ZZseleniumStarts/ex1/Book1.xlsx
+++ b/ZZseleniumStarts/ex1/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Admin</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>boss</t>
+  </si>
+  <si>
+    <t>boss1</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
